--- a/src/main/resources/sample/Пример заполнения.XLSX
+++ b/src/main/resources/sample/Пример заполнения.XLSX
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Трек номер</t>
   </si>
   <si>
     <t>Магазин</t>
+  </si>
+  <si>
+    <t>Телефон получателя</t>
   </si>
 </sst>
 </file>
@@ -47,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -66,6 +69,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -79,12 +88,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -367,28 +379,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/sample/Пример заполнения.XLSX
+++ b/src/main/resources/sample/Пример заполнения.XLSX
@@ -88,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -96,9 +96,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -382,14 +383,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/main/resources/sample/Пример заполнения.XLSX
+++ b/src/main/resources/sample/Пример заполнения.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Трек номер</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Магазин</t>
   </si>
   <si>
     <t>Телефон получателя</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Предрегистрация?</t>
+  </si>
+  <si>
+    <t>BV123456789</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>Имя магазина или id</t>
+  </si>
+  <si>
+    <t>RA123456789BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/true/yes/да </t>
+  </si>
+  <si>
+    <t>Трек номер*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,8 +70,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,6 +109,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4FB9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F0FB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -88,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -100,12 +149,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD9F0FB"/>
+      <color rgb="FFF4FB9F"/>
+      <color rgb="FFA7AE52"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -380,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,17 +453,50 @@
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>375291111111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>375332222222</v>
       </c>
     </row>
   </sheetData>
